--- a/assets/collected_data_v2.xlsx
+++ b/assets/collected_data_v2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="cqb6r-2a0on" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,6 +52,27 @@
     <t xml:space="preserve">price_gbp</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/broad-vales-between-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cc6e67bbf724423788971620930adcdb~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad Vales Between by Jane Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital print on Canvas with hand dissolved ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/from-frozen-floods-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_7c7f1140a9b84b17831aff477802dc76~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Frozen Floods by Jane Ward</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/p10-by-olly-fathers</t>
   </si>
   <si>
@@ -64,6 +85,15 @@
     <t xml:space="preserve">Acrylic paint on sprayed board</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/in-these-solitudes-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cb29ce9b22054ab585e18a0512a41965~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In These Solitudes by Jane Ward</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/p8-by-olly-fathers</t>
   </si>
   <si>
@@ -73,16 +103,13 @@
     <t xml:space="preserve">P8 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/broad-vales-between-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cc6e67bbf724423788971620930adcdb~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broad Vales Between by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital print on Canvas with hand dissolved ink</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/of-earth-air-and-water-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8485b8464d154601b9d41c03946c1283~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of Earth, Air and Water by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/p4-by-olly-fathers</t>
@@ -94,13 +121,13 @@
     <t xml:space="preserve">P4 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/from-frozen-floods-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_7c7f1140a9b84b17831aff477802dc76~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From Frozen Floods by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/unfathomable-deeps-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a91fd48a7d2c4d15938c83e6f3c09545~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfathomable Deeps by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/p1-by-olly-fathers</t>
@@ -112,13 +139,13 @@
     <t xml:space="preserve">P1 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/in-these-solitudes-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cb29ce9b22054ab585e18a0512a41965~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In These Solitudes by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-high-way-peak-by-jane-ward-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_87c8d4a021ac40c1a815dacdde36a2d1~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The High Way (Peak) by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/c13-by-olly-fathers</t>
@@ -130,13 +157,16 @@
     <t xml:space="preserve">C13 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/of-earth-air-and-water-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8485b8464d154601b9d41c03946c1283~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of Earth, Air and Water by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/wherever-you-go-i-will-follow-by-dominic-bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9e21e435a46940f7910d01060e262f40~mv2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wherever You Go, I Will Follow by Dominic Bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil, watercolour, charcoal and ink on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/c6-by-olly-fathers</t>
@@ -148,13 +178,13 @@
     <t xml:space="preserve">C6 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/unfathomable-deeps-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a91fd48a7d2c4d15938c83e6f3c09545~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unfathomable Deeps by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/message-of-undying-love-by-dominic-bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_0ce1ee98223f43bcb4a734912f871404~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Of Undying Love by Dominic Bradnum</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/collage-1-by-olly-fathers</t>
@@ -169,13 +199,16 @@
     <t xml:space="preserve">Spraypaint, vinyl, card, digital print collage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-high-way-peak-by-jane-ward-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_87c8d4a021ac40c1a815dacdde36a2d1~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The High Way (Peak) by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/sshhh-by-dominic-bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9c4d51dba2294a9099e5e1e522005859~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSHHH by Dominic Bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/collage-2-by-olly-fathers</t>
@@ -187,16 +220,16 @@
     <t xml:space="preserve">Collage 2 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/wherever-you-go-i-will-follow-by-dominic-bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9e21e435a46940f7910d01060e262f40~mv2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wherever You Go, I Will Follow by Dominic Bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil, watercolour, charcoal and ink on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/with-tomorrow-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_508c43fd81c74f019f9470602f841ec8~mv2_d_2171_1777_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With Tomorrow by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/collage-3-by-olly-fathers</t>
@@ -208,13 +241,13 @@
     <t xml:space="preserve">Collage 3 by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/message-of-undying-love-by-dominic-bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_0ce1ee98223f43bcb4a734912f871404~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message Of Undying Love by Dominic Bradnum</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-chaos-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b2b766d3b1964ea8aa87b5a5d3e27c5a~mv2_d_2155_1810_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Chaos by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/constructed-veneer-vii-by-olly-fathers</t>
@@ -229,16 +262,13 @@
     <t xml:space="preserve">Various wood veneers, various woods, board</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/sshhh-by-dominic-bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9c4d51dba2294a9099e5e1e522005859~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSHHH by Dominic Bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oil on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-reaches-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_fd06626603694e8ca33a2d4d63647554~mv2_d_2480_2065_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Reaches by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/constructed-veneer-5-by-olly-fathers-1</t>
@@ -250,16 +280,16 @@
     <t xml:space="preserve">Constructed Veneer VI by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/with-tomorrow-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_508c43fd81c74f019f9470602f841ec8~mv2_d_2171_1777_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">With Tomorrow by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/stroke-by-deanna-lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8d7e2db39efd4d9983b592b04cb5fddf~mv2_d_2887_1889_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Stroke" by Deanna Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrylic and oil paint on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/constructed-veneer-5-by-olly-fathers</t>
@@ -271,13 +301,13 @@
     <t xml:space="preserve">Constructed Veneer V by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-chaos-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b2b766d3b1964ea8aa87b5a5d3e27c5a~mv2_d_2155_1810_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Chaos by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/push-by-deanna-lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_847c5d4cfcf84170ac8d6336a1c327de~mv2_d_2897_1937_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Push" by Deanna Lewis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/constructed-veneer-4-by-olly-fathers</t>
@@ -289,13 +319,13 @@
     <t xml:space="preserve">Constructed Veneer IV by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-reaches-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_fd06626603694e8ca33a2d4d63647554~mv2_d_2480_2065_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Reaches by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/shift-by-deanna-lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1cb05655ee9a4b83bd3af17f7d7da950~mv2_d_2884_1892_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Shift" by Deanna Lewis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/tommy-by-olly-fathers</t>
@@ -310,16 +340,13 @@
     <t xml:space="preserve">Spraypaint, board, card, digital print collage</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/stroke-by-deanna-lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8d7e2db39efd4d9983b592b04cb5fddf~mv2_d_2887_1889_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stroke" by Deanna Lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acrylic and oil paint on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/exchange-by-deanna-lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_720a7caf7bc8460dbd7a94f0c0036bc5~mv2_d_2878_2046_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Exchange" by Deanna Lewis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/crossroads-by-olly-fathers</t>
@@ -334,13 +361,13 @@
     <t xml:space="preserve">Sprayed board</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/push-by-deanna-lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_847c5d4cfcf84170ac8d6336a1c327de~mv2_d_2897_1937_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Push" by Deanna Lewis</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/point-by-deanna-lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_0c6bae368354406893fed2369f0a633f~mv2_d_2708_1867_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Point" by Deanna Lewis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/candy-flop-by-olly-fathers</t>
@@ -352,13 +379,13 @@
     <t xml:space="preserve">Candy Flop by Olly Fathers</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/shift-by-deanna-lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1cb05655ee9a4b83bd3af17f7d7da950~mv2_d_2884_1892_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Shift" by Deanna Lewis</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/follow-by-deanna-lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9f48120fa5a14de886d19998a4f41b78~mv2_d_2544_1780_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Follow" by Deanna Lewis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-i-by-jane-ward</t>
@@ -373,13 +400,16 @@
     <t xml:space="preserve">Archival Digital print on stretched canvas, finished with gold leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/exchange-by-deanna-lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_720a7caf7bc8460dbd7a94f0c0036bc5~mv2_d_2878_2046_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Exchange" by Deanna Lewis</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-7-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1dc0bf6dee0f4bb28372d7d73b2921ea~mv2_d_3298_3077_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 7 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelain, orange acrylic, concrete, wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-hurricane-by-lucy-baker</t>
@@ -394,13 +424,16 @@
     <t xml:space="preserve">Oil paint, spray paint &amp; gold leaf on board</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/point-by-deanna-lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_0c6bae368354406893fed2369f0a633f~mv2_d_2708_1867_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Point" by Deanna Lewis</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-6-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_25e743596eb34392b34da15121bf2d7e~mv2_d_4608_3456_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 6 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcelain, green acrylic, concrete, wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/amazons-by-lucy-baker</t>
@@ -412,13 +445,16 @@
     <t xml:space="preserve">Amazons by Lucy Baker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/follow-by-deanna-lewis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9f48120fa5a14de886d19998a4f41b78~mv2_d_2544_1780_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Follow" by Deanna Lewis</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-5-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9658ba39dee3402eb8fddba2c0e33270~mv2_d_3618_2645_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 5 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">porcelain, pink acrylic, wood, steel, wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/off-road-by-lucy-baker</t>
@@ -430,16 +466,16 @@
     <t xml:space="preserve">OFF ROAD by Lucy Baker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-7-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1dc0bf6dee0f4bb28372d7d73b2921ea~mv2_d_3298_3077_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 7 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcelain, orange acrylic, concrete, wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-4-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d766791085f0402cbe9afb93cbecbff8~mv2_d_4326_3216_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 4 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelain, blue acylic, wood, steel, wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/hurricane-by-lucy-baker</t>
@@ -454,16 +490,16 @@
     <t xml:space="preserve">Oil paint &amp;Â spray paint on board</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-6-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_25e743596eb34392b34da15121bf2d7e~mv2_d_4608_3456_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 6 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porcelain, green acrylic, concrete, wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-3-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_af63696e3ab94014abb0b6a882102c63~mv2_d_3474_3136_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 3 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green acrylic, wood, steel, wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/another-sunset-by-lucy-baker</t>
@@ -475,16 +511,16 @@
     <t xml:space="preserve">Another Sunset by Lucy Baker</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-5-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9658ba39dee3402eb8fddba2c0e33270~mv2_d_3618_2645_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 5 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porcelain, pink acrylic, wood, steel, wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-2-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b6e8c64e618d4753ab805b91cee36bd6~mv2_d_3862_3025_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 2 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow acrylic, steel and wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/kin-by-vic-wright</t>
@@ -499,16 +535,16 @@
     <t xml:space="preserve">24k gold leaf, crystal, iron and white and grey casting cement.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-4-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d766791085f0402cbe9afb93cbecbff8~mv2_d_4326_3216_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 4 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcelain, blue acylic, wood, steel, wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-1-by-victoria-ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a938d23c94ba428c92606b8c9300a3f1~mv2_d_2840_2983_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement 1 by Victoria Ashdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcelain, red acrylic, steel, wire</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/morning-came-by-dominic-bradnum</t>
@@ -523,16 +559,16 @@
     <t xml:space="preserve">oil with charcoal, watercolour and pencil on canvas</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-3-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_af63696e3ab94014abb0b6a882102c63~mv2_d_3474_3136_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 3 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green acrylic, wood, steel, wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/skywalk-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3bb1c42a24ca4c04b413f9f670ba205b~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skywalk by Jane Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital print on Canvas with dissolved ink</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-ephemeral-isles-by-jane-ward</t>
@@ -547,16 +583,16 @@
     <t xml:space="preserve">Archival digital print on canvas with dissolved canvas</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-2-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b6e8c64e618d4753ab805b91cee36bd6~mv2_d_3862_3025_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 2 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow acrylic, steel and wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/yellow-wall-by-lucinda-metcalfe-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_37d336f50a174d88a0395ba5091b321b~mv2_d_2982_2225_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow Wall by Lucinda Metcalfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Paint and acrylic on board</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/to-the-zenith-s-height-by-jane-ward</t>
@@ -568,16 +604,13 @@
     <t xml:space="preserve">To The Zenith's Height by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/emplacement-1-by-victoria-ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a938d23c94ba428c92606b8c9300a3f1~mv2_d_2840_2983_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emplacement 1 by Victoria Ashdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcelain, red acrylic, steel, wire</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-high-way-peak-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_4ff9510c393c443fa02a7308910c3184~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The High Way (Pass) by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/all-recognisable-entities-by-elise-wootten</t>
@@ -592,16 +625,16 @@
     <t xml:space="preserve">Beech, Mdf, Acrylic paint, Vinyl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/skywalk-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3bb1c42a24ca4c04b413f9f670ba205b~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skywalk by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital print on Canvas with dissolved ink</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/bridge-over-garden-city-state-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_7444b6f6cb8a4acc91a9a8fd74812cb3~mv2_d_2584_1944_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridge Over Garden City State by Jane Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival digital print on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/somewhat-confusing-iii-by-elise-wootten</t>
@@ -616,16 +649,16 @@
     <t xml:space="preserve">Aluminium, Inkjet Vinyl Print</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/yellow-wall-by-lucinda-metcalfe-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_37d336f50a174d88a0395ba5091b321b~mv2_d_2982_2225_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow Wall by Lucinda Metcalfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Paint and acrylic on board</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/factory-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_69c32232a6774e75949d0c8cda6fe648~mv2_d_2310_3864_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factory by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed media</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/somewhat-confusing-ii-by-elise-wootten</t>
@@ -637,13 +670,13 @@
     <t xml:space="preserve">Somewhat Confusing II by Elise Wootten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-high-way-peak-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_4ff9510c393c443fa02a7308910c3184~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The High Way (Pass) by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/capital-drone-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8da7dd71436f4e2cb2c322911d55d28d~mv2_d_2896_2614_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Drone by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/somewhat-confusing-i-by-elise-wootten</t>
@@ -655,16 +688,13 @@
     <t xml:space="preserve">Somewhat Confusing I by Elise Wootten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/bridge-over-garden-city-state-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_7444b6f6cb8a4acc91a9a8fd74812cb3~mv2_d_2584_1944_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridge Over Garden City State by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival digital print on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/copy-of-recon-drones-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5083987aa40449cca905979c46962866~mv2_d_3168_2814_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copy of Recon Drones by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/balancing-acts-v-by-elise-wootten</t>
@@ -679,16 +709,10 @@
     <t xml:space="preserve">Inkjet Print (Hahnemuhle Ultra-Smooth)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/factory-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_69c32232a6774e75949d0c8cda6fe648~mv2_d_2310_3864_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mixed media</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/recon-drones-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recon Drones by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/balancing-acts-iv-by-elise-wootten</t>
@@ -700,13 +724,13 @@
     <t xml:space="preserve">Balancing Acts IV by Elise Wootten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/capital-drone-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8da7dd71436f4e2cb2c322911d55d28d~mv2_d_2896_2614_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Drone by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/sovereign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_bebbcb5f36744976acbf2f801cb5d426~mv2_d_1788_2362_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sovereign</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/balancing-acts-iii-by-elise-wootten</t>
@@ -718,13 +742,16 @@
     <t xml:space="preserve">Balancing Acts III by Elise Wootten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/copy-of-recon-drones-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5083987aa40449cca905979c46962866~mv2_d_3168_2814_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copy of Recon Drones by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-mortal-frame-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_ad5a1db62d8d43eba3df9f108f0e1ae3~mv2_d_2463_2467_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mortal Frame by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil &amp;Â acrylic on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/balancing-acts-ii-by-elise-wootten</t>
@@ -736,10 +763,13 @@
     <t xml:space="preserve">Balancing Acts II by Elise Wootten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/recon-drones-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recon Drones by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-castle-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_ad2ddc6070724edb81e6c02cb4d15b4b~mv2_d_2352_2987_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Castle by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/balancing-acts-i-by-elise-wootten</t>
@@ -751,13 +781,13 @@
     <t xml:space="preserve">Balancing Acts I by Elise Wootten</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/sovereign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_bebbcb5f36744976acbf2f801cb5d426~mv2_d_1788_2362_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sovereign</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/guiding-light-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3cb59736e6dd4d9b86b5329a6d617f34~mv2_d_2848_2534_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiding Light by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/you-took-my-breath-away-by-dominic-bradnum</t>
@@ -772,16 +802,16 @@
     <t xml:space="preserve">oil on canvas with charcoal, watercolour and pencil</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-mortal-frame-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_ad5a1db62d8d43eba3df9f108f0e1ae3~mv2_d_2463_2467_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Mortal Frame by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil &amp;Â acrylic on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/loneliness-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_df69bd8df5d74c58b7ac60fb5ebb2240~mv2_d_3344_2463_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loneliness by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil, acrylic and pigment on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/as-the-tide-turned-by-dominic-bradnum</t>
@@ -796,13 +826,16 @@
     <t xml:space="preserve">Oil with charcoal, watercolour and sand on canvas</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-castle-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_ad2ddc6070724edb81e6c02cb4d15b4b~mv2_d_2352_2987_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Castle by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/embers-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_384caa72145a4697b02316d1d8a48aaa~mv2_d_2222_2920_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embers by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and acrylic on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/portal-9-by-jane-ward</t>
@@ -817,13 +850,13 @@
     <t xml:space="preserve">Digital print underÂ acrylic with subframe</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/guiding-light-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3cb59736e6dd4d9b86b5329a6d617f34~mv2_d_2848_2534_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiding Light by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/take-our-time-someday-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a3f6abb75e72496c84a945ad9063e83b~mv2_d_2000_2644_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take Our Time (Someday) by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/portal-8-by-jane-ward</t>
@@ -835,16 +868,16 @@
     <t xml:space="preserve">Portal 8 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/loneliness-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_df69bd8df5d74c58b7ac60fb5ebb2240~mv2_d_3344_2463_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loneliness by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil, acrylic and pigment on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-wheel-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_98c26ee6815445f292c258eb65ffaa43~mv2_d_2953_2953_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wheel by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil, enamel, acrylic and plaster on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/portal-7-by-jane-ward</t>
@@ -856,16 +889,13 @@
     <t xml:space="preserve">Portal 7 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/embers-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_384caa72145a4697b02316d1d8a48aaa~mv2_d_2222_2920_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Embers by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and acrylic on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/venn-s-bluff-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_22bd550bcb1b43afa3b08fbf19c8f62f~mv2_d_2794_2794_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venn's Bluff by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/portal-6-by-jane-ward</t>
@@ -877,13 +907,13 @@
     <t xml:space="preserve">Portal 6 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/take-our-time-someday-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a3f6abb75e72496c84a945ad9063e83b~mv2_d_2000_2644_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take Our Time (Someday) by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/ennio-fallen-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cb02cefdefeb442d95a09388816c9ed7~mv2_d_2792_2772_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ennio Fallen by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/portal-5-by-jane-ward</t>
@@ -895,16 +925,16 @@
     <t xml:space="preserve">Portal 5 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-wheel-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_98c26ee6815445f292c258eb65ffaa43~mv2_d_2953_2953_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Wheel by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil, enamel, acrylic and plaster on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/yeti-over-mount-fuji-pantone-yellow-by-phil-ashcroft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_01025a58d83b48348d158ffba2d87257~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YETI OVER MOUNT FUJI (PANTONE YELLOW) by Phil Ashcroft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screenprint on paper</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragstudy-5-by-jim-cheatle</t>
@@ -919,13 +949,16 @@
     <t xml:space="preserve">Resin, pigments, inkjet prints, MDF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/venn-s-bluff-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_22bd550bcb1b43afa3b08fbf19c8f62f~mv2_d_2794_2794_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venn's Bluff by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/summer-breeze-by-lucinda-metcalfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9f987266a3be41058bde2ddc8476057a~mv2_d_2461_1843_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer Breeze by Lucinda Metcalfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil paint on primed paper</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragstudy-4-by-jim-cheatle</t>
@@ -937,13 +970,16 @@
     <t xml:space="preserve">Fragstudy 4 by Jim Cheatle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/ennio-fallen-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cb02cefdefeb442d95a09388816c9ed7~mv2_d_2792_2772_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ennio Fallen by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-3-by-jane-ward-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d9632229516949bcb2c58f1ed3825f8e~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpine 3 by Jane Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital print on canvas with hand dissolved ink</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragstudy-3-by-jim-cheatle</t>
@@ -955,16 +991,13 @@
     <t xml:space="preserve">Fragstudy 3 by Jim Cheatle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/yeti-over-mount-fuji-pantone-yellow-by-phil-ashcroft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_01025a58d83b48348d158ffba2d87257~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YETI OVER MOUNT FUJI (PANTONE YELLOW) by Phil Ashcroft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">screenprint on paper</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-3-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_bdf3f2acea3e4595964717347e16dde1~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpine 4 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragstudy-2-by-jim-cheatle</t>
@@ -976,16 +1009,13 @@
     <t xml:space="preserve">Fragstudy 2 by Jim Cheatle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/summer-breeze-by-lucinda-metcalfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9f987266a3be41058bde2ddc8476057a~mv2_d_2461_1843_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer Breeze by Lucinda Metcalfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil paint on primed paper</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-2-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_72384b17c7d94385a73fd9845cfe7ab9~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpine 2 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragstudy-1-by-jim-cheatle</t>
@@ -997,16 +1027,13 @@
     <t xml:space="preserve">Fragstudy 1 by Jim Cheatle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-3-by-jane-ward-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d9632229516949bcb2c58f1ed3825f8e~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpine 3 by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital print on canvas with hand dissolved ink</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-1-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cc168ef583074472b5b34ddf232a4f45~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpine 1 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragmentation-no-10-by-jim-cheatle</t>
@@ -1021,13 +1048,13 @@
     <t xml:space="preserve">Resin, pigments, paper, indian ink, inkjet prints, MDF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-3-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_bdf3f2acea3e4595964717347e16dde1~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpine 4 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-4-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_2dfbfe7a31db41b3aade3cb507cc6549~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overland 4 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragmentation-no-17-by-jim-cheatle</t>
@@ -1042,13 +1069,13 @@
     <t xml:space="preserve">Resin, pigments, canvas, paper, inkjet prints, MDF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-2-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_72384b17c7d94385a73fd9845cfe7ab9~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpine 2 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-3-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5e140609babd4616b77604bb71c0a2da~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overland 3 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragmentation-no-33-by-jim-cheatle</t>
@@ -1060,13 +1087,13 @@
     <t xml:space="preserve">FRAGMENTATION No.33 by Jim Cheatle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/alpine-1-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_cc168ef583074472b5b34ddf232a4f45~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpine 1 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-2-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_36340c0232ed4984940fd0f1d88d6191~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overland 2 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragmentation-no-45-by-jim-cheatle</t>
@@ -1081,13 +1108,13 @@
     <t xml:space="preserve">Resin, pigments, inkjet prints, acrylic, paper, MDF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-4-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_2dfbfe7a31db41b3aade3cb507cc6549~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overland 4 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-1-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_fdda50e7f222460a899fab0336fbac8e~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overland 1 by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragmentation-no-44-by-jim-cheatle</t>
@@ -1102,13 +1129,16 @@
     <t xml:space="preserve">Resin, pigments, inkjet prints, canvas, MDF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-3-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5e140609babd4616b77604bb71c0a2da~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overland 3 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-ii-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_300ac42a20684c8097b1db48ce1e9e40~mv2_d_3801_2111_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiral II by Bella Easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watercolour and hand coloured copper plate etching on Velin Arches</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/fragmentation-no-46-by-jim-cheatle</t>
@@ -1123,13 +1153,13 @@
     <t xml:space="preserve">Resin, pigments, indian ink, watercolour paper, inkjet prints, MDF</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-2-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_36340c0232ed4984940fd0f1d88d6191~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overland 2 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-iii-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_4d54da67a8d94434973b3883ce2b6a70~mv2_d_3801_2111_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiral III by Bella Easton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/portal-1-by-jane-ward</t>
@@ -1141,13 +1171,13 @@
     <t xml:space="preserve">Portal 1 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/overland-1-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_fdda50e7f222460a899fab0336fbac8e~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overland 1 by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-iv-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_6cf623aa993b41fe99a79247c4a84637~mv2_d_3801_2111_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiral IV by Bella Easton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/copy-of-meld-5</t>
@@ -1162,16 +1192,13 @@
     <t xml:space="preserve">13K gold leaf, copper leaf, white casting cement, iron and pigment</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-ii-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_300ac42a20684c8097b1db48ce1e9e40~mv2_d_3801_2111_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiral II by Bella Easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watercolour and hand coloured copper plate etching on Velin Arches</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-v-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_741d332c7b274af79d56da25dba678cd~mv2_d_3801_2111_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiral V by Bella Easton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-ephemeral-isles-5a-by-jane-ward</t>
@@ -1186,13 +1213,13 @@
     <t xml:space="preserve">Digital print on canvas withÂ dissolved ink</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-iii-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_4d54da67a8d94434973b3883ce2b6a70~mv2_d_3801_2111_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiral III by Bella Easton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-vi-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_92ad4628270f4e218b4738d13900adc0~mv2_d_3801_2111_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiral VI by Bella Easton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/from-frozen-floods-by-jane-ward-1</t>
@@ -1204,13 +1231,16 @@
     <t xml:space="preserve">Digital print on Aluminium</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-iv-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_6cf623aa993b41fe99a79247c4a84637~mv2_d_3801_2111_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiral IV by Bella Easton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/myriorama-room-series-fireplace-ii-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9c0269992e7c44d0974c41b288f2261a~mv2_d_1694_2268_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYRIORAMA ROOM series â€“ FIREPLACE II by Bella Easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88 hand coloured copper plate etchings on 400gsm Velin Arches and conservation board</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/unfathomable-deeps-by-jane-ward-1</t>
@@ -1219,13 +1249,13 @@
     <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_acf9e352b7a84a86b51ef8a0968a4167~mv2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-v-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_741d332c7b274af79d56da25dba678cd~mv2_d_3801_2111_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiral V by Bella Easton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/myriorama-room-series-lamp-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_609e49c5ebd140358f1c20f763fbbec6~mv2_d_1907_2551_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYRIORAMA ROOM series - LAMP by Bella Easton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/castle-2-by-jane-ward</t>
@@ -1237,13 +1267,13 @@
     <t xml:space="preserve">Castle 2 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/chiral-vi-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_92ad4628270f4e218b4738d13900adc0~mv2_d_3801_2111_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiral VI by Bella Easton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/myriorama-room-series-armchair-by-bella-easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8401d5ac47d44a818fe4bd3e4ce4f7a7~mv2_d_1900_2525_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYRIORAMA ROOM series â€“ARMCHAIR by Bella Easton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/from-steep-to-steep-by-jane-ward</t>
@@ -1255,16 +1285,16 @@
     <t xml:space="preserve">From Steep to Steep by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/myriorama-room-series-fireplace-ii-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9c0269992e7c44d0974c41b288f2261a~mv2_d_1694_2268_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYRIORAMA ROOM series â€“ FIREPLACE II by Bella Easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88 hand coloured copper plate etchings on 400gsm Velin Arches and conservation board</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-dawn-chorus-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_62b5c54bc5204e68ba2305f884a38484~mv2_d_1240_1304_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Dawn Chorus by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and acrylic on Canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/those-hidden-ravines-by-jane-ward</t>
@@ -1276,13 +1306,16 @@
     <t xml:space="preserve">Those Hidden Ravines by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/myriorama-room-series-lamp-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_609e49c5ebd140358f1c20f763fbbec6~mv2_d_1907_2551_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYRIORAMA ROOM series - LAMP by Bella Easton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-hidden-city-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_083b7e965f334a6ead7e57d47fa74b71~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hidden City by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil and enamel on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-ephemeral-isles-1-by-jane-ward</t>
@@ -1294,13 +1327,16 @@
     <t xml:space="preserve">The Ephemeral Isles 1 by Jane Ward</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/myriorama-room-series-armchair-by-bella-easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8401d5ac47d44a818fe4bd3e4ce4f7a7~mv2_d_1900_2525_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYRIORAMA ROOM series â€“ARMCHAIR by Bella Easton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/march-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8cfcbe301dc74233899209feb89927e5~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil on Canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/meld-5-by-vic-wright</t>
@@ -1315,16 +1351,16 @@
     <t xml:space="preserve">16K goldleaf, white casting cement, pigment and ink</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-dawn-chorus-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_62b5c54bc5204e68ba2305f884a38484~mv2_d_1240_1304_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Dawn Chorus by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and acrylic on Canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-vandal-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_f774b43a2aed48478d6aba2c9e17bd22~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Vandal by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenprint on paper</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/meld-4-by-vic-wright</t>
@@ -1336,16 +1372,16 @@
     <t xml:space="preserve">Meld 4 by Vic Wright</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-hidden-city-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_083b7e965f334a6ead7e57d47fa74b71~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hidden City by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil and enamel on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-scientist-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9d93f2c27ac0426e8cd2fed0dc436fba~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Scientist by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen print on paper</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/purple-motion-by-dionne-cole</t>
@@ -1360,16 +1396,13 @@
     <t xml:space="preserve">Sculpted hand and laser cut paper, pins</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/march-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_8cfcbe301dc74233899209feb89927e5~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil on Canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/tilt-by-chris-hawton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1ccd123081d941adbafe9cd1b2afbe1e~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tilt by Chris Hawton</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/disperse-by-dionne-cole</t>
@@ -1381,16 +1414,13 @@
     <t xml:space="preserve">Disperse by Dionne Cole</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-vandal-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_f774b43a2aed48478d6aba2c9e17bd22~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Vandal by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screenprint on paper</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-cope-marsh-station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e0781e3f44c144ff90d46285bcf1fdc8~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cope Marsh Station by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/you-took-my-breath-away-by-dominic-badnum</t>
@@ -1402,16 +1432,13 @@
     <t xml:space="preserve">This Day Is Ours by Dominic Bradnum</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-scientist-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9d93f2c27ac0426e8cd2fed0dc436fba~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Scientist by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen print on paper</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/seth-s-narrows-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a172dddbcf5a469b850ff006bb8f1f2d~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seth's Narrows by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/take-my-hand-by-dominic-badnum</t>
@@ -1426,13 +1453,16 @@
     <t xml:space="preserve">oil on canvas with charcoal and watercolour</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/tilt-by-chris-hawton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1ccd123081d941adbafe9cd1b2afbe1e~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tilt by Chris Hawton</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/relic-engines-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9074e39a8560459793d0e98b1025648d~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relic Engines by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil, enamel and acrylic on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-tide-seems-to-whisper-your-name-by-dominic-badnum</t>
@@ -1444,13 +1474,13 @@
     <t xml:space="preserve">The Tide Seems To Whisper Your Name by Dominic Badnum</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/the-cope-marsh-station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e0781e3f44c144ff90d46285bcf1fdc8~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cope Marsh Station by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/protist-peak-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e475714af9d845e898dd1edaa9313bf5~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist Peak by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/i-see-beauty-in-everything-by-dominic-badnum</t>
@@ -1462,13 +1492,13 @@
     <t xml:space="preserve">I See Beauty In Everything by Dominic Badnum</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/seth-s-narrows-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a172dddbcf5a469b850ff006bb8f1f2d~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seth's Narrows by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/photeus-at-the-pythia-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9e2a1916d95e4dd881d8eb30e936f0c8~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photeus at the Pythia by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/flight-by-dionne-cole</t>
@@ -1483,16 +1513,16 @@
     <t xml:space="preserve">Sculpted hand and laser cut paper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/relic-engines-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9074e39a8560459793d0e98b1025648d~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relic Engines by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil, enamel and acrylic on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/jerome-s-peak-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5ac9e440223144399dbad6ca5bec452e~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerome's Peak by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil,enamel and acrylic on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/shades-of-coral-ii-by-dionne-cole</t>
@@ -1504,13 +1534,16 @@
     <t xml:space="preserve">Shades of Coral II by Dionne Cole</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/protist-peak-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e475714af9d845e898dd1edaa9313bf5~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist Peak by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/gregor-s-hollow-by-chris-hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_fa00d65220c9413ba6adde5d9f61493c~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregor's Hollow by Chris Hawtin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil, enamel, acrylic and resin on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/facet-5-by-vic-wright</t>
@@ -1525,13 +1558,13 @@
     <t xml:space="preserve">Fine white casting cement, ink and 24k gold leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/photeus-at-the-pythia-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_9e2a1916d95e4dd881d8eb30e936f0c8~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Photeus at the Pythia by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/anxiety-machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_ddd2124c1a684c8fb6b3c0888b9c5c35~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety Machines by Chris Hawtin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/facet-4-by-vic-wright</t>
@@ -1546,16 +1579,16 @@
     <t xml:space="preserve">Fine white casting cement and 24k gold leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/jerome-s-peak-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5ac9e440223144399dbad6ca5bec452e~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerome's Peak by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil,enamel and acrylic on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/under-a-bruised-and-leaden-sky-by-dominic-badnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_02de381c5208463eb599eced636a8b83~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under A Bruised And Leaden Sky by Dominic Badnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil with charcoal &amp; watercolour on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/facet-3-by-vic-wright</t>
@@ -1570,16 +1603,16 @@
     <t xml:space="preserve">Fine white casting cement, ink and 18k gold</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/gregor-s-hollow-by-chris-hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_fa00d65220c9413ba6adde5d9f61493c~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregor's Hollow by Chris Hawtin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil, enamel, acrylic and resin on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/i-crash-into-your-arms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_09708beec7b1417fba60a41120910a86~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Crash Into Your Arms by Dominic Bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil with charcoal, watercolour, salt &amp; sand on canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/facet-2-by-vic-wright</t>
@@ -1594,13 +1627,16 @@
     <t xml:space="preserve">24k gold leaf, white casting cement and ink</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/anxiety-machines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_ddd2124c1a684c8fb6b3c0888b9c5c35~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety Machines by Chris Hawtin</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/then-all-was-calm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b7575e794cd34365ae9daead463c27fe~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then All Was Calm... by Dominic Bradnum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height 110cm x width 150cm</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/green-sanctuary-by-dionne-cole</t>
@@ -1612,16 +1648,16 @@
     <t xml:space="preserve">Green Sanctuary by Dionne Cole</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/under-a-bruised-and-leaden-sky-by-dominic-badnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_02de381c5208463eb599eced636a8b83~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under A Bruised And Leaden Sky by Dominic Badnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil with charcoal &amp; watercolour on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/garden-city-state-1c-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_0d9b6bdf42f847dea3c1139423f60ac9~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garden City State 1c by Jane Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital print with hand dissolved ink and gold leaf</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/conversation-3-by-vic-wright</t>
@@ -1636,16 +1672,13 @@
     <t xml:space="preserve">Fine white casting cement, ink, crystals and 24k gold leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/i-crash-into-your-arms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_09708beec7b1417fba60a41120910a86~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Crash Into Your Arms by Dominic Bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil with charcoal, watercolour, salt &amp; sand on canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/garden-city-state-1b-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_6aa891748aed4a23b5332ef2421c9096~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garden City State 1b by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/conversation-2-by-vic-wright</t>
@@ -1660,16 +1693,13 @@
     <t xml:space="preserve">Black and white casting cement with 24k gold leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/then-all-was-calm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b7575e794cd34365ae9daead463c27fe~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then All Was Calm... by Dominic Bradnum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height 110cm x width 150cm</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/garden-city-state-1a-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a926b16cae8a46898f47897899f179dd~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garden City State 1a by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/facet-by-vic-wright</t>
@@ -1684,16 +1714,16 @@
     <t xml:space="preserve">13k gold leaf and grey casting cement.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/garden-city-state-1c-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_0d9b6bdf42f847dea3c1139423f60ac9~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garden City State 1c by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital print with hand dissolved ink and gold leaf</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/secret-place-by-natasha-kissell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_97545340514a4e339b0daf951cdf4638~mv2_d_2598_2225_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret Place by Natasha Kissell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil paint onto Canvas</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/ore-by-vic-wright</t>
@@ -1708,13 +1738,16 @@
     <t xml:space="preserve">18k goldleaf, grey casting cement and white wax.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/garden-city-state-1b-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_6aa891748aed4a23b5332ef2421c9096~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garden City State 1b by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/heated-discussion-by-lucinda-metcalfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_2a84cbbfcc404218aaa8c0f794fbbd73~mv2_d_2179_2516_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heated Discussion by Lucinda Metcalfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil Paint on Board</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/meld-2-by-vic-wright</t>
@@ -1729,13 +1762,16 @@
     <t xml:space="preserve">24k goldleaf, white and black cement with iron</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/garden-city-state-1a-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_a926b16cae8a46898f47897899f179dd~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garden City State 1a by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/amongst-the-impcat-scars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3221ee9c97a3464aa501404beb6b7bb8~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amongst the Impcat Scars by Jane Ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital print on canvas with hand dissoved ink</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/conversation-by-vic-wright</t>
@@ -1750,16 +1786,13 @@
     <t xml:space="preserve">18K gold leaf and white casting cement</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/secret-place-by-natasha-kissell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_97545340514a4e339b0daf951cdf4638~mv2_d_2598_2225_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secret Place by Natasha Kissell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil paint onto Canvas</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/castle-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d94491fa733c4e628cfb6e1e7d2fd1c6~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castle by Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/meld-1-by-vic-wright</t>
@@ -1774,16 +1807,16 @@
     <t xml:space="preserve">24k gold leaf, white casting cement and ground iron</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/heated-discussion-by-lucinda-metcalfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_2a84cbbfcc404218aaa8c0f794fbbd73~mv2_d_2179_2516_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heated Discussion by Lucinda Metcalfe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil Paint on Board</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/sky-walk-by-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d88739a376f2471f8568a8e39ed9e1db~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sky Walk by Jane ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Print on Canvas with Dissolved ink</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/standing-white-black-gold-by-vic-wright</t>
@@ -1798,16 +1831,16 @@
     <t xml:space="preserve">Lichen gilded with 24k gold leaf, moss with ground copper, and white casting cement</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/amongst-the-impcat-scars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3221ee9c97a3464aa501404beb6b7bb8~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amongst the Impcat Scars by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital print on canvas with hand dissoved ink</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/jubellied-joy-song-by-nadja-gabriela-plein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1ea0ceb26c59491593208b79a52c6d0d~mv2_d_2784_3456_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jubellied (joy song) by Nadja Gabriela Plein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint onto Aluminium with subframe</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/standing-grey-double-by-vic-wright</t>
@@ -1822,13 +1855,16 @@
     <t xml:space="preserve">Grey casting cement</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/castle-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d94491fa733c4e628cfb6e1e7d2fd1c6~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Castle by Jane Ward</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/neon-pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3087614845b8431797734aade82c713a~mv2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucinda Metcalfe - Neon Pool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acrylic and oil on board</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/standing-triple-grey-and-black-by-vic-wright</t>
@@ -1843,16 +1879,16 @@
     <t xml:space="preserve">24k gold leaf with casting cement</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/sky-walk-by-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d88739a376f2471f8568a8e39ed9e1db~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sky Walk by Jane ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Print on Canvas with Dissolved ink</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/moving-from-the-side-of-the-vallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_7eca1187b0cc41fabf31d432e0cc0a17~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving from the side of the valley by Janie Kidston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival digital print</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/standing-white-and-grey-speckle-by-vic-wright</t>
@@ -1867,16 +1903,16 @@
     <t xml:space="preserve">White and Grey fine casting cement with white wax</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/jubellied-joy-song-by-nadja-gabriela-plein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_1ea0ceb26c59491593208b79a52c6d0d~mv2_d_2784_3456_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jubellied (joy song) by Nadja Gabriela Plein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint onto Aluminium with subframe</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/walking-out-over-ice-in-midsummer-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3a3f4a2e03f24f60b3e6e64d5e0260e2~mv2_d_2477_3508_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking Out Over Ice in Midsummer 1 by Janie Kidston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival Digital Print</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/meld-3-by-vic-wright</t>
@@ -1891,16 +1927,16 @@
     <t xml:space="preserve">13k gold leaf, white casting cement and ink</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/neon-pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3087614845b8431797734aade82c713a~mv2.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucinda Metcalfe - Neon Pool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acrylic and oil on board</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/retreating-then-advancing-repeatedly-over-the-centuries-6-by-janie-kidston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b7b23a7f1be34528a3a757b2691f536a~mv2_d_2953_2953_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Retreating, then advancing repeatedly over the centuries 6' by Janie Kidston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival Inkjet Print</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/standing-triple-black-grey-and-white-by-vic-wright</t>
@@ -1915,16 +1951,16 @@
     <t xml:space="preserve">White and grey casting cement with ink</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/moving-from-the-side-of-the-vallery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_7eca1187b0cc41fabf31d432e0cc0a17~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moving from the side of the valley by Janie Kidston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival digital print</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/retreating-then-advancing-repeatedly-over-the-centuries-3-by-janie-kidston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_608b1cf8fd5a476f8edaa926fb562ef0~mv2_d_8100_8100_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Retreating, then advancing repeatedly over the centuries 3' by Janie Kidston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival inkjet print</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/white-sitting-double-by-vic-wright</t>
@@ -1939,16 +1975,13 @@
     <t xml:space="preserve">24K gold leaf &amp; white casting cement</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/walking-out-over-ice-in-midsummer-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3a3f4a2e03f24f60b3e6e64d5e0260e2~mv2_d_2477_3508_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking Out Over Ice in Midsummer 1 by Janie Kidston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival Digital Print</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/retreating-then-advancing-repeatedly-over-the-centuries-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_300431a0a2a34d58a5745e3e51bf914a~mv2_d_2937_2937_s_4_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Retreating, then advancing repeatedly over the centuries'5 by Janie Kidston</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/angel-heart-by-bella-easton</t>
@@ -1963,16 +1996,13 @@
     <t xml:space="preserve">Pencil on Arches paper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/retreating-then-advancing-repeatedly-over-the-centuries-6-by-janie-kidston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_b7b23a7f1be34528a3a757b2691f536a~mv2_d_2953_2953_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Retreating, then advancing repeatedly over the centuries 6' by Janie Kidston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival Inkjet Print</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/bayou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5b8c8637c0d44381ba9d6b37e6162549~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayou</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/where-stars-dissolve-by-bella-easton</t>
@@ -1984,16 +2014,16 @@
     <t xml:space="preserve">Where Stars Dissolve by Bella Easton</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/retreating-then-advancing-repeatedly-over-the-centuries-3-by-janie-kidston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_608b1cf8fd5a476f8edaa926fb562ef0~mv2_d_8100_8100_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Retreating, then advancing repeatedly over the centuries 3' by Janie Kidston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival inkjet print</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/gloaming-by-suzanne-moxhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3d09f32762a647999858b05dd0460384~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloaming by Suzanne Moxhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival Digital print</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/entry-point-by-joseph-stokes</t>
@@ -2008,13 +2038,16 @@
     <t xml:space="preserve">Graphite on paper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/retreating-then-advancing-repeatedly-over-the-centuries-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_300431a0a2a34d58a5745e3e51bf914a~mv2_d_2937_2937_s_4_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Retreating, then advancing repeatedly over the centuries'5 by Janie Kidston</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/athne-by-suzanne-moxhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d75039babce04739814894a4025f6229~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athne by Suzanne Moxhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archival Digital Print </t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/museum-of-now-by-john-greenwood</t>
@@ -2029,13 +2062,13 @@
     <t xml:space="preserve">Oil on Gessoed canvas on Board</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/bayou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_5b8c8637c0d44381ba9d6b37e6162549~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayou</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/boondocks-by-suzanne-moxhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e245336db8984b10a6424229d77f9ede~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boondocks by Suzanne Moxhay</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/el-dorado-by-john-greenwood</t>
@@ -2047,16 +2080,13 @@
     <t xml:space="preserve">El Dorado by John Greenwood</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/gloaming-by-suzanne-moxhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_3d09f32762a647999858b05dd0460384~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloaming by Suzanne Moxhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival Digital print</t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/feralis-by-suzanne-moxhay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_2bde835f833941679b526ca61f18cf6d~mv2_d_1772_1421_s_2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feralis by Suzanne Moxhay</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/spangled-by-john-greenwood</t>
@@ -2068,16 +2098,13 @@
     <t xml:space="preserve">Spangled by John Greenwood</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/athne-by-suzanne-moxhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_d75039babce04739814894a4025f6229~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Athne by Suzanne Moxhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archival Digital Print </t>
+    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/gcs-high-rise-jane-ward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e1d5c0a1857e4122a7b157b5899358c9~mv2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GCS) High Rise - Jane Ward</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/from-the-curved-horizon-by-jane-ward</t>
@@ -2092,15 +2119,6 @@
     <t xml:space="preserve">Digital print on canvas with dissolved ink and gold leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/boondocks-by-suzanne-moxhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e245336db8984b10a6424229d77f9ede~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boondocks by Suzanne Moxhay</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/to-the-zenith-sheight-by-jane-ward</t>
   </si>
   <si>
@@ -2113,15 +2131,6 @@
     <t xml:space="preserve">Digital print on canvas with dissolved ink and pigment</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/feralis-by-suzanne-moxhay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_2bde835f833941679b526ca61f18cf6d~mv2_d_1772_1421_s_2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feralis by Suzanne Moxhay</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.bearspace.co.uk/product-page/and-the-sunset-by-jane-ward</t>
   </si>
   <si>
@@ -2129,15 +2138,6 @@
   </si>
   <si>
     <t xml:space="preserve">And The Sunset by Jane Ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.bearspace.co.uk/product-page/gcs-high-rise-jane-ward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://static.wixstatic.com/media/23a2ed_e1d5c0a1857e4122a7b157b5899358c9~mv2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(GCS) High Rise - Jane Ward</t>
   </si>
 </sst>
 </file>
@@ -2152,6 +2152,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2218,40 +2219,39 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="95.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="95.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2299,17 +2299,14 @@
       <c r="D2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F2" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>240</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,17 +2322,14 @@
       <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>240</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,14 +2345,17 @@
       <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F4" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>840</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,17 +2371,14 @@
       <c r="D5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F5" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>240</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,14 +2394,17 @@
       <c r="D6" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F6" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>840</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,17 +2420,14 @@
       <c r="D7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F7" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>240</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,14 +2443,17 @@
       <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F8" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>840</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,17 +2469,14 @@
       <c r="D9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F9" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>240</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,14 +2492,17 @@
       <c r="D10" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F10" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>840</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,17 +2518,14 @@
       <c r="D11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F11" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>240</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,14 +2541,17 @@
       <c r="D12" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F12" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>840</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,17 +2567,14 @@
       <c r="D13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F13" s="0" t="n">
-        <v>29.7</v>
+        <v>70</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>175</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,14 +2590,17 @@
       <c r="D14" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F14" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>940</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2619,17 +2616,14 @@
       <c r="D15" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F15" s="0" t="n">
-        <v>29.7</v>
+        <v>110</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>175</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,14 +2639,17 @@
       <c r="D16" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F16" s="0" t="n">
-        <v>70</v>
+        <v>29.7</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1400</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,65 +2663,62 @@
         <v>61</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>2019</v>
+        <v>62</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>29.7</v>
+        <v>40</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>175</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F18" s="0" t="n">
-        <v>110</v>
+        <v>29.7</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>2400</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>2019</v>
+        <v>69</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>940</v>
@@ -2732,25 +2726,28 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>40</v>
+        <v>29.7</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>640</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2764,16 +2761,13 @@
         <v>75</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>2019</v>
+        <v>69</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>940</v>
@@ -2792,11 +2786,14 @@
       <c r="D22" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F22" s="0" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>940</v>
@@ -2813,16 +2810,13 @@
         <v>82</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>2019</v>
+        <v>69</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>940</v>
@@ -2841,11 +2835,14 @@
       <c r="D24" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F24" s="0" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>940</v>
@@ -2862,39 +2859,39 @@
         <v>88</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>2019</v>
+        <v>89</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>1100</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>2019</v>
+      </c>
       <c r="F26" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>940</v>
@@ -2902,28 +2899,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>2019</v>
+        <v>89</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>1940</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,114 +2931,117 @@
         <v>98</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>99</v>
+        <v>79</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>440</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>102</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>2018</v>
+        <v>89</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>4000</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>99</v>
+      <c r="E30" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>440</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>2019</v>
+        <v>89</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>3400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>99</v>
+      <c r="E32" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>440</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,108 +3055,114 @@
         <v>115</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>1400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="D34" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>340</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="D35" s="0" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>99</v>
-      </c>
       <c r="F36" s="0" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>340</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>123</v>
-      </c>
       <c r="F37" s="0" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>130</v>
+        <v>23</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>1600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,114 +3176,114 @@
         <v>132</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>240</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,94 +3297,94 @@
         <v>150</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>2019</v>
+        <v>151</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>340</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F44" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="J44" s="0" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>180</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,13 +3401,16 @@
         <v>166</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>640</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,16 +3427,13 @@
         <v>170</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>180</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,17 +3449,17 @@
       <c r="D49" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>2018</v>
-      </c>
       <c r="F49" s="0" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>1400</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3473,16 +3476,13 @@
         <v>178</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>180</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3496,65 +3496,62 @@
         <v>181</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>2018</v>
+        <v>182</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>1400</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>140</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>40.9</v>
+        <v>60</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>50.2</v>
+        <v>80</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>1200</v>
@@ -3562,25 +3559,28 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>193</v>
+        <v>186</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>90</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>940</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3594,39 +3594,36 @@
         <v>196</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>2019</v>
+        <v>13</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>640</v>
+        <v>940</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="F56" s="0" t="n">
-        <v>60</v>
+        <v>40.9</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>80</v>
+        <v>50.2</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>1200</v>
@@ -3634,28 +3631,25 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>2019</v>
-      </c>
       <c r="F57" s="0" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>640</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,39 +3663,39 @@
         <v>207</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>20</v>
+        <v>208</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>940</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>2019</v>
+        <v>212</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>88</v>
+        <v>1413.5</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>640</v>
@@ -3709,51 +3703,51 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>1800</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>2019</v>
+        <v>212</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>40.7</v>
+        <v>22</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>50.8</v>
+        <v>1413.5</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,13 +3761,16 @@
         <v>221</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>222</v>
+        <v>208</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1413.5</v>
+        <v>88</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>640</v>
@@ -3781,51 +3778,51 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>225</v>
-      </c>
       <c r="D63" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>2019</v>
+        <v>212</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>40.7</v>
+        <v>22</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>50.8</v>
+        <v>1413.5</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>222</v>
+      <c r="E64" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>22</v>
+        <v>40.7</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1413.5</v>
+        <v>50.8</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,97 +3830,97 @@
         <v>229</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>231</v>
-      </c>
       <c r="D65" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>2019</v>
+        <v>212</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>40.7</v>
+        <v>22</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>50.8</v>
+        <v>1413.5</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>234</v>
-      </c>
       <c r="D66" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>22</v>
+        <v>40.7</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1413.5</v>
+        <v>50.8</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="C67" s="0" t="s">
-        <v>237</v>
-      </c>
       <c r="D67" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>2019</v>
+        <v>212</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>40.7</v>
+        <v>22</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>50.8</v>
+        <v>1413.5</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>340</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>238</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>233</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>239</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>22</v>
+        <v>40.7</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1413.5</v>
+        <v>50.8</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,65 +3934,71 @@
         <v>242</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>40.7</v>
+        <v>99</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>50.8</v>
+        <v>99</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>340</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>22</v>
+        <v>40.7</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1413.5</v>
+        <v>50.8</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>640</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>249</v>
+        <v>243</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>2018</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>640</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,117 +4012,120 @@
         <v>252</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>99</v>
+        <v>40.7</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>99</v>
+        <v>50.8</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>1600</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>256</v>
-      </c>
       <c r="D73" s="0" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>1400</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="D74" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E74" s="0" t="n">
-        <v>2018</v>
-      </c>
       <c r="F74" s="0" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>1400</v>
+        <v>640</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="D75" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>60</v>
+      <c r="E75" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>490</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>253</v>
-      </c>
       <c r="E76" s="0" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>695</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,85 +4139,85 @@
         <v>270</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>60</v>
+        <v>271</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>490</v>
+        <v>640</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F78" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>30</v>
+        <v>275</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>60</v>
+        <v>271</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>490</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F80" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <v>30</v>
+        <v>275</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,85 +4231,85 @@
         <v>284</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>30</v>
+        <v>285</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>198</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>198</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>320</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>30</v>
+        <v>275</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>60</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>640</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>30</v>
+        <v>285</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>180</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>320</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E84" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>198</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>198</v>
+        <v>275</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>4000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,65 +4323,65 @@
         <v>297</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>298</v>
+        <v>285</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>30.5</v>
+        <v>198</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>490</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>301</v>
-      </c>
       <c r="D86" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E86" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F86" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="G86" s="0" t="n">
-        <v>180</v>
+        <v>275</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>3800</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>298</v>
+      <c r="E87" s="0" t="n">
+        <v>2014</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>30.5</v>
+        <v>59.4</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>490</v>
+        <v>150</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4389,163 +4395,160 @@
         <v>307</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>2017</v>
+        <v>308</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>198</v>
+        <v>30.5</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>4000</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>30.5</v>
+        <v>57.5</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>490</v>
+        <v>690</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>2014</v>
+        <v>308</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>59.4</v>
+        <v>30.5</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>150</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>298</v>
+        <v>319</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>57.5</v>
+        <v>30.5</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>690</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>298</v>
+        <v>319</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>490</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E94" s="0" t="n">
-        <v>2017</v>
+        <v>308</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,140 +4562,140 @@
         <v>331</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>332</v>
+        <v>319</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>54.5</v>
+        <v>30</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>1200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C96" s="0" t="s">
-        <v>335</v>
-      </c>
       <c r="D96" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E96" s="0" t="n">
-        <v>2017</v>
+        <v>308</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>40</v>
+        <v>30.5</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="D97" s="0" t="s">
-        <v>339</v>
+        <v>319</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>54.5</v>
+        <v>30</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>1200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="D98" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E98" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F98" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>290</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>345</v>
-      </c>
       <c r="D99" s="0" t="s">
-        <v>339</v>
+        <v>204</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>54.5</v>
+        <v>120</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F100" s="0" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>290</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,160 +4709,163 @@
         <v>351</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>352</v>
+        <v>204</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>54.5</v>
+        <v>120</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>355</v>
-      </c>
       <c r="D102" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>2017</v>
+        <v>348</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>120</v>
+        <v>54.5</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="C103" s="0" t="s">
-        <v>358</v>
-      </c>
       <c r="D103" s="0" t="s">
-        <v>359</v>
+        <v>204</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>54.5</v>
+        <v>120</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C104" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="D104" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="C104" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F104" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>120</v>
+        <v>54.5</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="C105" s="0" t="s">
-        <v>365</v>
-      </c>
       <c r="D105" s="0" t="s">
-        <v>366</v>
+        <v>204</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>54.5</v>
+        <v>120</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="D106" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="C106" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E106" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F106" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>120</v>
+        <v>54.5</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="I107" s="0" t="n">
-        <v>30</v>
+      <c r="F107" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>320</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4873,42 +4879,39 @@
         <v>375</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E108" s="0" t="n">
-        <v>2017</v>
+        <v>376</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>120</v>
+        <v>54.5</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>420</v>
+        <v>940</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,108 +4925,105 @@
         <v>382</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="F110" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G110" s="0" t="n">
-        <v>18</v>
+        <v>275</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>940</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>386</v>
-      </c>
       <c r="D111" s="0" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>490</v>
+        <v>940</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="D112" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="C112" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>383</v>
-      </c>
       <c r="F112" s="0" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>940</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="C113" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="D113" s="0" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>340</v>
+        <v>940</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>383</v>
-      </c>
       <c r="F114" s="0" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>940</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,134 +5034,134 @@
         <v>398</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>44</v>
+        <v>399</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>340</v>
+        <v>940</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>940</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>640</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>407</v>
+        <v>35</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>940</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>640</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>2800</v>
+        <v>640</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,16 +5175,16 @@
         <v>417</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>640</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,16 +5198,16 @@
         <v>420</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>2800</v>
+        <v>640</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,85 +5221,88 @@
         <v>423</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>1800</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>2800</v>
+        <v>640</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>440</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5313,94 +5316,91 @@
         <v>437</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>379</v>
+        <v>438</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>440</v>
+        <v>940</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="J128" s="0" t="n">
         <v>440</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="E128" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F128" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="G128" s="0" t="n">
-        <v>101</v>
-      </c>
-      <c r="J128" s="0" t="n">
-        <v>1600</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>59.4</v>
+        <v>76</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>84.1</v>
+        <v>56</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>2017</v>
+        <v>389</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>940</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,94 +5414,94 @@
         <v>452</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>2019</v>
+        <v>453</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>76</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>101.6</v>
+        <v>56</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>76</v>
+        <v>59.4</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>56</v>
+        <v>84.1</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>250</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>463</v>
+        <v>457</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>2019</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>76</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>56</v>
+        <v>101.6</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,97 +5515,97 @@
         <v>466</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>467</v>
+        <v>69</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>840</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B136" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="C136" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="C136" s="0" t="s">
-        <v>470</v>
-      </c>
       <c r="D136" s="0" t="s">
-        <v>281</v>
+        <v>178</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>800</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B137" s="0" t="s">
         <v>471</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="C137" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="C137" s="0" t="s">
-        <v>473</v>
-      </c>
       <c r="D137" s="0" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>1600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B138" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="C138" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="D138" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="E138" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>1400</v>
+        <v>840</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,65 +5619,71 @@
         <v>479</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>1600</v>
+        <v>690</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>800</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>486</v>
+        <v>271</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>92</v>
+        <v>40</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>50</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>2800</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,68 +5697,65 @@
         <v>489</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>690</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="C143" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>493</v>
-      </c>
       <c r="D143" s="0" t="s">
-        <v>486</v>
+        <v>271</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>30.5</v>
+        <v>70</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>70</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>490</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B144" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="C144" s="0" t="s">
         <v>495</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="D144" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="D144" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="E144" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F144" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="G144" s="0" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>690</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,14 +5771,17 @@
       <c r="D145" s="0" t="s">
         <v>500</v>
       </c>
+      <c r="E145" s="0" t="n">
+        <v>2017</v>
+      </c>
       <c r="F145" s="0" t="n">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>6.5</v>
+        <v>143</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>140</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,19 +5795,16 @@
         <v>503</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>281</v>
+        <v>496</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>70</v>
+        <v>30.5</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>1200</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,14 +5820,17 @@
       <c r="D147" s="0" t="s">
         <v>507</v>
       </c>
+      <c r="E147" s="0" t="n">
+        <v>2017</v>
+      </c>
       <c r="F147" s="0" t="n">
-        <v>7.5</v>
+        <v>198</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>140</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,17 +5846,14 @@
       <c r="D148" s="0" t="s">
         <v>511</v>
       </c>
-      <c r="E148" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F148" s="0" t="n">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>143</v>
+        <v>6.5</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>2400</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5864,91 +5867,91 @@
         <v>514</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>515</v>
+        <v>480</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>140</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B150" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="C150" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="D150" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="D150" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F150" s="0" t="n">
-        <v>198</v>
+        <v>7.5</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>4000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B151" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="C151" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="D151" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="D151" s="0" t="s">
-        <v>523</v>
+      <c r="E151" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>140</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B152" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="C152" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="D152" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="D152" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="E152" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F152" s="0" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>1600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5962,91 +5965,91 @@
         <v>529</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E154" s="0" t="n">
-        <v>2017</v>
+        <v>534</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>1600</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>340</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,13 +6066,13 @@
         <v>545</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>320</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6085,17 +6088,14 @@
       <c r="D158" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="E158" s="0" t="n">
-        <v>2017</v>
-      </c>
       <c r="F158" s="0" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>2400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,128 +6109,128 @@
         <v>552</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>140</v>
+        <v>490</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B160" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="C160" s="0" t="s">
         <v>555</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="D160" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="D160" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="F160" s="0" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>490</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B161" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="C161" s="0" t="s">
         <v>559</v>
       </c>
-      <c r="C161" s="0" t="s">
-        <v>560</v>
-      </c>
       <c r="D161" s="0" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>45</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>140</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C162" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="D162" s="0" t="s">
         <v>563</v>
       </c>
-      <c r="C162" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="D162" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="F162" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>565</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="C163" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="D163" s="0" t="s">
         <v>567</v>
       </c>
-      <c r="D163" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="F163" s="0" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>320</v>
+        <v>940</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B164" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="C164" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="D164" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="D164" s="0" t="s">
-        <v>557</v>
-      </c>
       <c r="F164" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="G164" s="0" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>490</v>
+        <v>140</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,13 +6247,13 @@
         <v>575</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>16.5</v>
+        <v>43</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>440</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,13 +6270,13 @@
         <v>579</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>940</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,13 +6293,13 @@
         <v>583</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>440</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6316,13 +6316,13 @@
         <v>587</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>43</v>
+        <v>16.5</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6336,85 +6336,85 @@
         <v>590</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>591</v>
+        <v>182</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>280</v>
+        <v>940</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="C170" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="C170" s="0" t="s">
+      <c r="D170" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="D170" s="0" t="s">
-        <v>595</v>
-      </c>
       <c r="F170" s="0" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>1400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="C171" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="D171" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="D171" s="0" t="s">
-        <v>599</v>
-      </c>
       <c r="F171" s="0" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>6.5</v>
+        <v>70</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>180</v>
+        <v>940</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B172" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="C172" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="D172" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="D172" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="F172" s="0" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>940</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6431,13 +6431,13 @@
         <v>606</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6454,13 +6454,13 @@
         <v>610</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>70</v>
+        <v>6.5</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>940</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,14 +6476,17 @@
       <c r="D175" s="0" t="s">
         <v>614</v>
       </c>
+      <c r="E175" s="0" t="n">
+        <v>2016</v>
+      </c>
       <c r="F175" s="0" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>13</v>
+        <v>49.5</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>325</v>
+        <v>640</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,13 +6503,13 @@
         <v>618</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>490</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6523,13 +6526,13 @@
         <v>622</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>440</v>
+        <v>540</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6545,17 +6548,14 @@
       <c r="D178" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="E178" s="0" t="n">
-        <v>2016</v>
-      </c>
       <c r="F178" s="0" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>49.5</v>
+        <v>13</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>640</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,13 +6572,10 @@
         <v>630</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G179" s="0" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>340</v>
+        <v>940</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6595,13 +6592,13 @@
         <v>634</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>540</v>
+        <v>440</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,13 +6615,13 @@
         <v>638</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J181" s="0" t="n">
-        <v>290</v>
+        <v>540</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6641,10 +6638,13 @@
         <v>642</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>84</v>
+        <v>14</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="J182" s="0" t="n">
-        <v>940</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,13 +6661,13 @@
         <v>646</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J183" s="0" t="n">
-        <v>3200</v>
+        <v>540</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6684,13 +6684,13 @@
         <v>650</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>50</v>
+        <v>13.5</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J184" s="0" t="n">
-        <v>540</v>
+        <v>290</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,13 +6707,13 @@
         <v>646</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="J185" s="0" t="n">
-        <v>3200</v>
+        <v>540</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6730,13 +6730,13 @@
         <v>657</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J186" s="0" t="n">
-        <v>540</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6750,91 +6750,88 @@
         <v>660</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>661</v>
-      </c>
-      <c r="E187" s="0" t="n">
-        <v>2017</v>
+        <v>622</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J187" s="0" t="n">
-        <v>720</v>
+        <v>690</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B188" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="C188" s="0" t="s">
         <v>663</v>
-      </c>
-      <c r="C188" s="0" t="s">
-        <v>664</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>657</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J188" s="0" t="n">
-        <v>540</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B189" s="0" t="s">
         <v>665</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="C189" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="C189" s="0" t="s">
+      <c r="D189" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="D189" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="E189" s="0" t="n">
-        <v>2016</v>
-      </c>
       <c r="F189" s="0" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J189" s="0" t="n">
-        <v>9800</v>
+        <v>690</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B190" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="C190" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="C190" s="0" t="s">
+      <c r="D190" s="0" t="s">
         <v>671</v>
       </c>
-      <c r="D190" s="0" t="s">
-        <v>634</v>
+      <c r="E190" s="0" t="n">
+        <v>2017</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J190" s="0" t="n">
-        <v>690</v>
+        <v>720</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6848,91 +6845,91 @@
         <v>674</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="E191" s="0" t="n">
-        <v>2016</v>
+        <v>675</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J191" s="0" t="n">
-        <v>3800</v>
+        <v>690</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>2016</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J192" s="0" t="n">
-        <v>690</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="E193" s="0" t="n">
-        <v>2015</v>
+        <v>675</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J193" s="0" t="n">
-        <v>3000</v>
+        <v>690</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>685</v>
+        <v>679</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>2016</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J194" s="0" t="n">
-        <v>690</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6946,114 +6943,108 @@
         <v>688</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>689</v>
-      </c>
-      <c r="E195" s="0" t="n">
-        <v>1400</v>
+        <v>667</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="J195" s="0" t="n">
-        <v>1400</v>
+        <v>690</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="C196" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>692</v>
-      </c>
       <c r="D196" s="0" t="s">
-        <v>685</v>
+        <v>438</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>2015</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J196" s="0" t="n">
-        <v>690</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="B197" s="0" t="s">
         <v>693</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="C197" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="C197" s="0" t="s">
-        <v>695</v>
-      </c>
-      <c r="D197" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="E197" s="0" t="n">
-        <v>1400</v>
-      </c>
-      <c r="F197" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="G197" s="0" t="n">
-        <v>120</v>
-      </c>
       <c r="J197" s="0" t="n">
-        <v>1400</v>
+        <v>990</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="C198" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="D198" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="C198" s="0" t="s">
-        <v>699</v>
-      </c>
-      <c r="D198" s="0" t="s">
-        <v>678</v>
+      <c r="E198" s="0" t="n">
+        <v>1400</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="J198" s="0" t="n">
-        <v>690</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="B199" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="C199" s="0" t="s">
         <v>701</v>
       </c>
-      <c r="C199" s="0" t="s">
+      <c r="D199" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="D199" s="0" t="s">
-        <v>20</v>
+      <c r="E199" s="0" t="n">
+        <v>1400</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="J199" s="0" t="n">
-        <v>840</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7066,14 +7057,23 @@
       <c r="C200" s="0" t="s">
         <v>705</v>
       </c>
+      <c r="D200" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="J200" s="0" t="n">
-        <v>990</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
